--- a/数据库设计文档v1.3.xlsx
+++ b/数据库设计文档v1.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9815" tabRatio="971" firstSheet="9" activeTab="15"/>
+    <workbookView windowWidth="22943" windowHeight="9815" tabRatio="971" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="表目录" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376">
   <si>
     <t>论坛：数据库设计文档</t>
   </si>
@@ -639,7 +639,36 @@
     <t>管理组名称</t>
   </si>
   <si>
-    <t>组key,唯一值，等效于ID</t>
+    <r>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>key,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>唯一值，等效于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
   </si>
   <si>
     <t>PK_BBS_Group</t>
@@ -654,13 +683,35 @@
     <t>group_id</t>
   </si>
   <si>
-    <t>管理组ID</t>
+    <r>
+      <t>管理组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
   </si>
   <si>
     <t>manage_id</t>
   </si>
   <si>
-    <t>单个管理权限单元ID</t>
+    <r>
+      <t>单个管理权限单元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
   </si>
   <si>
     <t>PK_BBS_GroupRight</t>
@@ -962,7 +1013,24 @@
     <t>icon_id</t>
   </si>
   <si>
-    <t>主题图标ID</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主题图标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1006,7 +1074,24 @@
     <t>nvarchar(400)</t>
   </si>
   <si>
-    <t>帖子展示图片.</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>帖子展示图片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <t>follow_count</t>
@@ -1109,9 +1194,9 @@
     <t>说明：论坛用户表</t>
   </si>
   <si>
-    <r>
-      <t>ID</t>
-    </r>
+    <t>user_name</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -1119,14 +1204,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>标识</t>
-    </r>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <r>
       <t>域名名称</t>
     </r>
     <r>
@@ -1228,6 +1305,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>最后发贴</t>
     </r>
     <r>
@@ -1245,6 +1328,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>最后回复贴</t>
     </r>
     <r>
@@ -1291,13 +1380,49 @@
     <t>说明：用户权限表,包括版主、管理员等权限</t>
   </si>
   <si>
-    <t>class_id</t>
-  </si>
-  <si>
-    <t>所对应的版块分类ID</t>
-  </si>
-  <si>
-    <t>社区版块管理组ID</t>
+    <r>
+      <t>所对应的版块分类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>社区版块管理组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>PK_BBS_UserRight</t>
@@ -1441,6 +1566,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户关系</t>
     </r>
     <r>
@@ -1466,24 +1597,16 @@
     <t>from_id</t>
   </si>
   <si>
-    <r>
-      <t>用户</t>
-    </r>
+    <t>to_id</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
         <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
-    <t>to_id</t>
-  </si>
-  <si>
-    <r>
       <t>被关联用户</t>
     </r>
     <r>
@@ -1550,13 +1673,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]General"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]General"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1565,19 +1688,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
@@ -1609,24 +1719,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="16"/>
@@ -1652,19 +1744,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1672,12 +1751,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1763,30 +1836,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1796,97 +1869,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2234,8 +2283,8 @@
   <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2247,341 +2296,341 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" ht="18.95" customHeight="1" spans="1:3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="30.95" customHeight="1" spans="1:3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="30.95" customHeight="1" spans="1:3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="18.15" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>9</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1" spans="1:4">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>10</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>11</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1" spans="1:4">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>12</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>13</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>14</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:4">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>15</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>16</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>17</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>18</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>19</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>20</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1" spans="1:4">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>21</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1" spans="1:4">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>22</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1" spans="1:4">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>23</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2638,245 +2687,245 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7">
+    <row r="7" ht="15.15" spans="1:5">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:5">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:5">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:5">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="13" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7">
+    <row r="14" ht="15.15" spans="1:5">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" ht="35.55" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+    <row r="16" ht="15.15" spans="1:4">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7">
+    <row r="17" ht="15.15" spans="1:4">
+      <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2907,161 +2956,161 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="7" ht="23.55" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7">
+    <row r="10" ht="15.15" spans="1:5">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7">
+    <row r="11" ht="15.15" spans="1:5">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3069,16 +3118,16 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="7" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3086,16 +3135,16 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3103,19 +3152,19 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3123,19 +3172,19 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3143,19 +3192,19 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3163,52 +3212,52 @@
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" ht="35.55" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+    <row r="19" ht="15.15" spans="1:4">
+      <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7">
+    <row r="20" ht="15.15" spans="1:4">
+      <c r="A20" s="5">
         <v>1</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3239,228 +3288,228 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7" ht="23.55" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="8" ht="23.55" spans="1:5">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7">
+    <row r="10" ht="15.15" spans="1:5">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7">
+    <row r="11" ht="15.15" spans="1:5">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7">
+    <row r="12" ht="15.15" spans="1:5">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7">
+    <row r="13" ht="15.15" spans="1:5">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" ht="35.55" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
+    <row r="15" ht="15.15" spans="1:4">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" ht="23.55" spans="1:4">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3480,7 +3529,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3491,404 +3540,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7">
+    <row r="7" ht="15.15" spans="1:5">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7">
+    <row r="10" ht="15.15" spans="1:5">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7">
+    <row r="11" ht="15.15" spans="1:5">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7">
+    <row r="12" ht="15.15" spans="1:5">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7">
+    <row r="13" ht="15.15" spans="1:5">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7">
+    <row r="14" ht="15.15" spans="1:5">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7">
+    <row r="15" ht="15.15" spans="1:5">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7">
+    <row r="16" ht="15.15" spans="1:5">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7">
+    <row r="17" ht="15.15" spans="1:5">
+      <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7">
+    <row r="18" ht="15.15" spans="1:5">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="19" ht="23.55" spans="1:5">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>15</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7">
+    <row r="20" ht="15.15" spans="1:5">
+      <c r="A20" s="5">
         <v>16</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="7">
+    <row r="21" ht="15.15" spans="1:5">
+      <c r="A21" s="5">
         <v>17</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7">
+    <row r="22" ht="15.15" spans="1:6">
+      <c r="A22" s="5">
         <v>18</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="16" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7">
+    <row r="23" ht="15.15" spans="1:6">
+      <c r="A23" s="5">
         <v>19</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="16" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="24" ht="35.55" spans="1:1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
+    <row r="25" ht="15.15" spans="1:4">
+      <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7">
+    <row r="26" ht="15.15" spans="1:4">
+      <c r="A26" s="5">
         <v>1</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3920,177 +3969,177 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="9" ht="23.55" spans="1:5">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7">
+    <row r="10" ht="15.15" spans="1:5">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="11" ht="35.55" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
+    <row r="12" ht="15.15" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" ht="23.55" spans="1:4">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>1</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4121,143 +4170,143 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" ht="29.25" customHeight="1" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="7" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="9" ht="35.55" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="15.15" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" ht="23.55" spans="1:4">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4276,8 +4325,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4288,405 +4337,405 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" ht="23.55" spans="1:5">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="6" ht="23.55" spans="1:5">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="7" ht="15.15" spans="1:5">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="8" t="s">
+    </row>
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C8" s="8" t="s">
+    </row>
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
+    </row>
+    <row r="10" ht="15.15" spans="1:5">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="13" t="s">
+    </row>
+    <row r="11" ht="15.15" spans="1:5">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="13" t="s">
+    </row>
+    <row r="12" ht="15.15" spans="1:5">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="13" t="s">
+    </row>
+    <row r="13" ht="15.15" spans="1:5">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="8" t="s">
+    <row r="14" ht="15.15" spans="1:5">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="8" t="s">
+    <row r="15" ht="15.15" spans="1:5">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="D15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C15" s="8" t="s">
+    </row>
+    <row r="16" ht="15.15" spans="1:5">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" ht="15.15" spans="1:5">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" ht="15.15" spans="1:5">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="D18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" ht="15.15" spans="1:5">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" ht="15.15" spans="1:5">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" ht="15.15" spans="1:6">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" ht="15.15" spans="1:6">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12">
+        <v>19</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7">
+      <c r="D23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" ht="35.55" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" ht="15.15" spans="1:4">
+      <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" ht="15.15" spans="1:6">
-      <c r="A21" s="7">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" ht="15.15" spans="1:6">
-      <c r="A22" s="7">
-        <v>18</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="16">
-        <v>19</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="18" t="s">
+      <c r="B25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" ht="23.55" spans="1:4">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" ht="35.55" spans="1:1">
-      <c r="A24" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" ht="23.55" spans="1:4">
-      <c r="A26" s="7">
-        <v>1</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4706,8 +4755,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4717,177 +4766,177 @@
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="35.55" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" ht="35.55" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="C12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="1:4">
+      <c r="A13" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" ht="35.55" spans="1:1">
-      <c r="A11" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7">
-        <v>1</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4917,245 +4966,245 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7">
+    <row r="7" ht="15.15" spans="1:5">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7">
+    <row r="10" ht="15.15" spans="1:5">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7">
+    <row r="11" ht="15.15" spans="1:5">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7">
+    <row r="12" ht="15.15" spans="1:5">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7">
+    <row r="13" ht="15.15" spans="1:5">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7">
+    <row r="14" ht="15.15" spans="1:5">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="15" ht="35.55" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+    <row r="16" ht="15.15" spans="1:4">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7">
+    <row r="17" ht="15.15" spans="1:4">
+      <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5185,160 +5234,160 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="7" ht="23.55" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="9" ht="22.35" spans="1:5">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="10" ht="35.55" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="15.15" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" ht="23.55" spans="1:4">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5370,245 +5419,245 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" ht="17.4" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" ht="18.15" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" ht="23.55" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" ht="23.55" spans="1:5">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" ht="23.55" spans="1:5">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7">
+    <row r="11" ht="15.15" spans="1:5">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7">
+    <row r="12" ht="15.15" spans="1:5">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7">
+    <row r="13" ht="15.15" spans="1:5">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7">
+    <row r="14" ht="15.15" spans="1:5">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" ht="15.15" spans="1:4">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" ht="23.55" spans="1:4">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5638,160 +5687,160 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="7" ht="22.95" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="10" ht="35.55" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="15.15" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" ht="23.55" spans="1:4">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5821,160 +5870,160 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" ht="23.55" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="7" ht="23.55" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10">
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="10" ht="35.55" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="15.15" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7">
+    <row r="12" ht="15.15" spans="1:4">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6008,157 +6057,157 @@
       <c r="A1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" ht="22.35" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="8">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10">
-        <v>4</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="12" t="s">
+    </row>
+    <row r="10" ht="35.55" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" spans="1:4">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="10" ht="35.55" spans="1:1">
-      <c r="A10" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6190,159 +6239,159 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="35.55" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" spans="1:5">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" ht="35.55" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="C11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" spans="1:4">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B12" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" ht="35.55" spans="1:1">
-      <c r="A10" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6390,125 +6439,125 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="35.55" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" spans="1:5">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" ht="35.55" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="1:4">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="C9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" spans="1:4">
+      <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B10" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" ht="35.55" spans="1:1">
-      <c r="A8" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6539,194 +6588,194 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7">
+    <row r="7" ht="15.15" spans="1:5">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7">
+    <row r="10" ht="15.15" spans="1:5">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7">
+    <row r="11" ht="15.15" spans="1:5">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" ht="35.55" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
+    <row r="13" ht="15.15" spans="1:4">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" ht="23.55" spans="1:4">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6757,367 +6806,367 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7">
+    <row r="7" ht="15.15" spans="1:5">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7">
+    <row r="10" ht="15.15" spans="1:5">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" ht="23.55" spans="1:5">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7">
+    <row r="12" ht="15.15" spans="1:5">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7">
+    <row r="13" ht="15.15" spans="1:5">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10">
+    <row r="14" ht="15.15" spans="1:5">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7">
+    <row r="15" ht="15.15" spans="1:5">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="16" ht="23.55" spans="1:5">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7">
+    <row r="17" ht="15.15" spans="1:5">
+      <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7">
+    <row r="18" ht="15.15" spans="1:5">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7">
+    <row r="19" ht="15.15" spans="1:5">
+      <c r="A19" s="5">
         <v>15</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7">
+    <row r="20" ht="15.15" spans="1:5">
+      <c r="A20" s="5">
         <v>16</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="7">
+    <row r="21" ht="15.15" spans="1:5">
+      <c r="A21" s="5">
         <v>17</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="22" ht="35.25" customHeight="1" spans="1:4">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" ht="15.15" spans="1:4">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7">
+    <row r="24" ht="15.15" spans="1:4">
+      <c r="A24" s="5">
         <v>1</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7149,177 +7198,177 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7">
+    <row r="7" ht="15.15" spans="1:5">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7">
+    <row r="10" ht="15.15" spans="1:5">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" ht="35.55" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
+    <row r="12" ht="15.15" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7">
+    <row r="13" ht="15.15" spans="1:4">
+      <c r="A13" s="5">
         <v>1</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7351,143 +7400,143 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="18.15" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" ht="35.55" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="15.15" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7">
+    <row r="11" ht="15.15" spans="1:4">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7507,7 +7556,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -7517,143 +7566,143 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" ht="22.95" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" ht="35.55" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="15.15" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" ht="23.55" spans="1:4">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7684,160 +7733,160 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" ht="23.55" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="7" ht="23.55" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" ht="35.55" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="15.15" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" ht="23.55" spans="1:4">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7868,143 +7917,143 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="35.55" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" ht="22.35" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" ht="35.55" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="15.15" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" ht="23.55" spans="1:4">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>75</v>
       </c>
     </row>

--- a/数据库设计文档v1.3.xlsx
+++ b/数据库设计文档v1.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9815" tabRatio="971" firstSheet="5" activeTab="16"/>
+    <workbookView windowWidth="22943" windowHeight="9815" tabRatio="971" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="表目录" sheetId="1" r:id="rId1"/>
@@ -12,10 +12,10 @@
     <sheet name="BBS_Attachment_Download_User" sheetId="3" r:id="rId3"/>
     <sheet name="BBS_Category" sheetId="4" r:id="rId4"/>
     <sheet name="BBS_Global_Params" sheetId="5" r:id="rId5"/>
-    <sheet name="BBS_Rule_Group" sheetId="6" r:id="rId6"/>
-    <sheet name="BBS_Group_Right" sheetId="7" r:id="rId7"/>
+    <sheet name="BBS_Role_Group" sheetId="6" r:id="rId6"/>
+    <sheet name="BBS_Role_Group_Right" sheetId="7" r:id="rId7"/>
     <sheet name="BBS_Icon" sheetId="8" r:id="rId8"/>
-    <sheet name="BBS_Rule_Manage" sheetId="9" r:id="rId9"/>
+    <sheet name="BBS_Role_Manage" sheetId="9" r:id="rId9"/>
     <sheet name="BBS_Online" sheetId="10" r:id="rId10"/>
     <sheet name="BBS_Reply" sheetId="11" r:id="rId11"/>
     <sheet name="BBS_Special" sheetId="12" r:id="rId12"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375">
   <si>
     <t>论坛：数据库设计文档</t>
   </si>
@@ -150,13 +150,13 @@
     <t>全局参数信息</t>
   </si>
   <si>
-    <t>BBS_Rule_Group</t>
+    <t>BBS_Role_Group</t>
   </si>
   <si>
     <t>论坛权限组</t>
   </si>
   <si>
-    <t>BBS_Rule_Group_Right</t>
+    <t>BBS_Role_Group_Right</t>
   </si>
   <si>
     <t>权限组的权限表-组对应有哪些功能</t>
@@ -168,7 +168,7 @@
     <t>论坛帖子图标表</t>
   </si>
   <si>
-    <t>BBS_Rule_Manage</t>
+    <t>BBS_Role_Manage</t>
   </si>
   <si>
     <t>论坛版本权限功能表</t>
@@ -630,7 +630,7 @@
     <t>PK_BBS_Global</t>
   </si>
   <si>
-    <t>数据表名：BBS_Rule_Group</t>
+    <t>数据表名：BBS_Role_Group</t>
   </si>
   <si>
     <t>说明：论坛权限组</t>
@@ -640,6 +640,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>组</t>
     </r>
     <r>
@@ -674,7 +680,7 @@
     <t>PK_BBS_Group</t>
   </si>
   <si>
-    <t>数据表名：BBS_Group_Right</t>
+    <t>数据表名：BBS_Role_Group_Right</t>
   </si>
   <si>
     <t>说明：权限组的权限表-组对应有哪些功能</t>
@@ -684,6 +690,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>管理组</t>
     </r>
     <r>
@@ -701,6 +713,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>单个管理权限单元</t>
     </r>
     <r>
@@ -738,7 +756,7 @@
     <t>PK_BBS_Icon</t>
   </si>
   <si>
-    <t>数据表名：BBS_Rule_Manage</t>
+    <t>数据表名：BBS_Role_Manage</t>
   </si>
   <si>
     <t>说明：论坛版本权限功能表</t>
@@ -1381,6 +1399,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>所对应的版块分类</t>
     </r>
     <r>
@@ -1395,6 +1419,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>社区版块管理组</t>
     </r>
     <r>
@@ -1406,134 +1436,6 @@
       </rPr>
       <t>ID</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>用户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>PK_BBS_UserRight</t>
-  </si>
-  <si>
-    <t>数据表名：BBS_Vote</t>
-  </si>
-  <si>
-    <t>说明：论坛投票帖子</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>类别:如0:单行1:多选</t>
-  </si>
-  <si>
-    <t>投票总数</t>
-  </si>
-  <si>
-    <t>user_count</t>
-  </si>
-  <si>
-    <t>投票用户总数</t>
-  </si>
-  <si>
-    <t>limit</t>
-  </si>
-  <si>
-    <t>权限限制[分值限制,默认0分不限制]</t>
-  </si>
-  <si>
-    <t>available_day</t>
-  </si>
-  <si>
-    <t>投票有效天数[0默认不限制]</t>
-  </si>
-  <si>
-    <t>look_mode</t>
-  </si>
-  <si>
-    <t>查看方式[0:直接查看;1:投票后查看]</t>
-  </si>
-  <si>
-    <t>投票创建时间</t>
-  </si>
-  <si>
-    <t>PK_ForumVote</t>
-  </si>
-  <si>
-    <t>数据表名：BBS_Vote_Item</t>
-  </si>
-  <si>
-    <t>说明：论坛投标帖的投票项</t>
-  </si>
-  <si>
-    <t>vote_id</t>
-  </si>
-  <si>
-    <t>投票ID</t>
-  </si>
-  <si>
-    <t>投票项目名称</t>
-  </si>
-  <si>
-    <t>投票数</t>
-  </si>
-  <si>
-    <t>投票项目创建时间</t>
-  </si>
-  <si>
-    <t>PK_BBS_VoteItem</t>
-  </si>
-  <si>
-    <t>数据表名：BBS_Vote_User</t>
-  </si>
-  <si>
-    <t>说明：论坛投票帖的投票用户</t>
-  </si>
-  <si>
-    <t>vote_item_id</t>
-  </si>
-  <si>
-    <t>投票项目ID</t>
-  </si>
-  <si>
-    <t>投票时间</t>
-  </si>
-  <si>
-    <t>PK_BBS_VoteUser</t>
-  </si>
-  <si>
-    <t>数据表名：Error_Logs</t>
-  </si>
-  <si>
-    <t>说明：数据库执行错误日志</t>
-  </si>
-  <si>
-    <t>page_url</t>
-  </si>
-  <si>
-    <t>错误页面</t>
-  </si>
-  <si>
-    <t>error_message</t>
-  </si>
-  <si>
-    <t>错误信息</t>
   </si>
   <si>
     <r>
@@ -1556,6 +1458,120 @@
     </r>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>PK_BBS_UserRight</t>
+  </si>
+  <si>
+    <t>数据表名：BBS_Vote</t>
+  </si>
+  <si>
+    <t>说明：论坛投票帖子</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>类别:如0:单行1:多选</t>
+  </si>
+  <si>
+    <t>投票总数</t>
+  </si>
+  <si>
+    <t>user_count</t>
+  </si>
+  <si>
+    <t>投票用户总数</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>权限限制[分值限制,默认0分不限制]</t>
+  </si>
+  <si>
+    <t>available_day</t>
+  </si>
+  <si>
+    <t>投票有效天数[0默认不限制]</t>
+  </si>
+  <si>
+    <t>look_mode</t>
+  </si>
+  <si>
+    <t>查看方式[0:直接查看;1:投票后查看]</t>
+  </si>
+  <si>
+    <t>投票创建时间</t>
+  </si>
+  <si>
+    <t>PK_ForumVote</t>
+  </si>
+  <si>
+    <t>数据表名：BBS_Vote_Item</t>
+  </si>
+  <si>
+    <t>说明：论坛投标帖的投票项</t>
+  </si>
+  <si>
+    <t>vote_id</t>
+  </si>
+  <si>
+    <t>投票ID</t>
+  </si>
+  <si>
+    <t>投票项目名称</t>
+  </si>
+  <si>
+    <t>投票数</t>
+  </si>
+  <si>
+    <t>投票项目创建时间</t>
+  </si>
+  <si>
+    <t>PK_BBS_VoteItem</t>
+  </si>
+  <si>
+    <t>数据表名：BBS_Vote_User</t>
+  </si>
+  <si>
+    <t>说明：论坛投票帖的投票用户</t>
+  </si>
+  <si>
+    <t>vote_item_id</t>
+  </si>
+  <si>
+    <t>投票项目ID</t>
+  </si>
+  <si>
+    <t>投票时间</t>
+  </si>
+  <si>
+    <t>PK_BBS_VoteUser</t>
+  </si>
+  <si>
+    <t>数据表名：Error_Logs</t>
+  </si>
+  <si>
+    <t>说明：数据库执行错误日志</t>
+  </si>
+  <si>
+    <t>page_url</t>
+  </si>
+  <si>
+    <t>错误页面</t>
+  </si>
+  <si>
+    <t>error_message</t>
+  </si>
+  <si>
+    <t>错误信息</t>
+  </si>
+  <si>
     <t>PK_ErrorLogs</t>
   </si>
   <si>
@@ -1673,10 +1689,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]General"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="11">
@@ -2283,8 +2299,8 @@
   <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2644,10 +2660,10 @@
     <hyperlink ref="B9" location="BBS_Attachment_Download_User!A1" display="BBS_Attachment_Download_User"/>
     <hyperlink ref="B10" location="BBS_Category!A1" display="BBS_Category"/>
     <hyperlink ref="B11" location="BBS_Global_Params!A1" display="BBS_Global_Params"/>
-    <hyperlink ref="B12" location="BBS_Rule_Group!A1" display="BBS_Rule_Group"/>
-    <hyperlink ref="B13" location="BBS_Group_Right!A1" display="BBS_Rule_Group_Right"/>
+    <hyperlink ref="B12" location="BBS_Role_Group!A1" display="BBS_Role_Group"/>
+    <hyperlink ref="B13" location="BBS_Role_Group_Right!A1" display="BBS_Role_Group_Right"/>
     <hyperlink ref="B14" location="BBS_Icon!A1" display="BBS_Icon"/>
-    <hyperlink ref="B15" location="BBS_Rule_Manage!A1" display="BBS_Rule_Manage"/>
+    <hyperlink ref="B15" location="BBS_Role_Manage!A1" display="BBS_Role_Manage"/>
     <hyperlink ref="B16" location="BBS_Online!A1" display="BBS_Online"/>
     <hyperlink ref="B17" location="BBS_Reply!A1" display="BBS_Reply"/>
     <hyperlink ref="B18" location="BBS_Special!A1" display="BBS_Special"/>
@@ -4755,7 +4771,7 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -4788,7 +4804,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="15.15" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -4805,7 +4821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4822,7 +4838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4839,7 +4855,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4856,7 +4872,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4873,7 +4889,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="15.15" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -4890,7 +4906,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="15.15" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -5991,7 +6007,7 @@
         <v>75</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" ht="35.55" spans="1:1">
@@ -6018,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>103</v>
@@ -6055,7 +6071,7 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6064,7 +6080,7 @@
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6107,7 +6123,7 @@
         <v>72</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
@@ -6115,7 +6131,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>97</v>
@@ -6132,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>84</v>
@@ -6141,7 +6157,7 @@
         <v>75</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -6149,7 +6165,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>71</v>
@@ -6158,7 +6174,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -6166,7 +6182,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>71</v>
@@ -6175,7 +6191,7 @@
         <v>75</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" ht="35.55" spans="1:1">
@@ -6202,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>103</v>
@@ -6239,7 +6255,7 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6248,7 +6264,7 @@
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6291,7 +6307,7 @@
         <v>72</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
@@ -6299,7 +6315,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>97</v>
@@ -6308,7 +6324,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:5">
@@ -6325,7 +6341,7 @@
         <v>75</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -6342,7 +6358,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -6350,7 +6366,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>84</v>
@@ -6359,7 +6375,7 @@
         <v>75</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" ht="35.55" spans="1:1">
@@ -6386,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>103</v>
@@ -6439,7 +6455,7 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6448,7 +6464,7 @@
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6491,7 +6507,7 @@
         <v>72</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
@@ -6508,7 +6524,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:5">
@@ -6516,7 +6532,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>84</v>
@@ -6525,7 +6541,7 @@
         <v>75</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" ht="35.55" spans="1:1">
@@ -6552,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>103</v>
@@ -7388,7 +7404,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -7439,7 +7455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -7456,7 +7472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -7473,7 +7489,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -7490,7 +7506,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -7556,7 +7572,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -7605,7 +7621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -7622,7 +7638,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -7656,7 +7672,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -7905,8 +7921,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -7956,7 +7972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -7973,7 +7989,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -8007,7 +8023,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
